--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -585,6 +585,36 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>서창영#0094</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>609604172349964328</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>318</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>귤님#2613</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>462469630347182080</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>68</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>☔ bow 6#0739</t>
         </is>
       </c>
     </row>
